--- a/document/Product-Management.xlsx
+++ b/document/Product-Management.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\Back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D81F1-D3DF-4688-B33A-AA725532081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D1659A-9F36-434C-B549-22BFFA3108B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve"> Program Outline</t>
   </si>
@@ -77,78 +77,15 @@
     <t>Cho phép chủ cửa hàng quản lý các sản phẩm hiện tại của mình</t>
   </si>
   <si>
-    <t>1.1. Hiển thị danh sách các mặt hàng hiện tại</t>
-  </si>
-  <si>
-    <t>2.1. Xử lý khi click button tìm kiếm</t>
-  </si>
-  <si>
-    <t>Nếu khách hàng chưa nhập thông tin tìm kiếm vào ô. Thông báo lỗi và tải lại.</t>
-  </si>
-  <si>
-    <t>Nếu khách hàng có nhập thông tin thì tìm kiếm tên sản phẩm theo thông tin người dùng nhập.</t>
-  </si>
-  <si>
-    <t>2.2. Xử lý list chọn mặt hàng</t>
-  </si>
-  <si>
-    <t>Khi người dùng click vào hiển thị ra 1 danh sách các mặt hàng hiện có của cửa hàng.</t>
-  </si>
-  <si>
     <t>2.3. Xử lý khi click vào nút chỉnh sửa</t>
   </si>
   <si>
-    <t>Hiển thị thông tin mặt hàng mà người dùng để chọn chỉnh sửa</t>
-  </si>
-  <si>
     <t>Cho phép người dùng chỉnh sửa các thông tin của mặt hàng.</t>
   </si>
   <si>
-    <t>Chuyển giao diện trở về trang quản lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu người dùng chưa nhập đầy đủ thông tin cho các trường. </t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo lỗi và dừng lại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu người dùng nhập đầy đủ thông tin cho các trường. </t>
-  </si>
-  <si>
-    <t>Lưu vào database và hiển thị thông báo đã cập nhật.</t>
-  </si>
-  <si>
-    <t>2.3.1 Xử lý button trở lại trang quản lý</t>
-  </si>
-  <si>
     <t>2.3.2 Xử lý button lưu</t>
   </si>
   <si>
-    <t>2.4. Xử lý khi click vào nút xóa</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo hỏi người dùng có muốn xóa hay không?</t>
-  </si>
-  <si>
-    <t>Nếu người dùng chọn có.</t>
-  </si>
-  <si>
-    <t>Xóa mặt hàng và tải lại</t>
-  </si>
-  <si>
-    <t>Nếu người dùng chọn không</t>
-  </si>
-  <si>
-    <t>Thoát khỏi thông báo và dừng xử lý.</t>
-  </si>
-  <si>
-    <t>2.5. Xử lý list lọc mặt hàng</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách lọc mặt hàng theo 3 yếu tố:</t>
-  </si>
-  <si>
     <t>Xem nhiều nhất</t>
   </si>
   <si>
@@ -158,13 +95,133 @@
     <t>Mới nhất</t>
   </si>
   <si>
-    <t>Khi người dùng chọn thì lọc sản phẩm theo thông tin người dùng đã chọn</t>
-  </si>
-  <si>
     <t>2.6. Xử lý khi người dùng click button số trang</t>
   </si>
   <si>
-    <t>Chuyển sang trang quản lý tương ứng.</t>
+    <t>1.1. Hiển thị danh sách Product hiện có trong DB ra màn hình</t>
+  </si>
+  <si>
+    <t>2.1. Xử lý khi Click button Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Kiểm tra input của txtSearch</t>
+  </si>
+  <si>
+    <t>Nếu người dùng chưa nhập input.</t>
+  </si>
+  <si>
+    <t>Không xử lý.</t>
+  </si>
+  <si>
+    <t>Nếu người dùng đã nhập input.</t>
+  </si>
+  <si>
+    <t>2.2. Xử lý Click cbb Chọn loại mặt hàng</t>
+  </si>
+  <si>
+    <t>Khi người dùng lựa chọn 1 giá trị trong cbb thì thực hiện tìm kiếm các sản phẩm có CategoryID tương ứng và hiển thị ra màn hình</t>
+  </si>
+  <si>
+    <t>Khi người dùng Click vào cbb thì lấy danh sách tất cả CategoryID trong DB đưa vào cbb và hiển thị CategoryName cho người dùng lựa chọn.</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang Chỉnh sửa mặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị tất cả thông tin các trường của sản phẩm mà người dùng cần chỉnh sửa lên màn hình gồm </t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>categoryID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>coverImage</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>2.3.1 Xử lý button Trở lại trang quản lý</t>
+  </si>
+  <si>
+    <t>Bỏ qua các chỉnh sửa của người dùng và chuyển trang về trang quản lý</t>
+  </si>
+  <si>
+    <t>Kiểm tra input của người dùng tại các trường tương ứng đã liệt kê bên trên.</t>
+  </si>
+  <si>
+    <t>Nếu người dùng chưa nhập đầy đủ thông tin cho các trường.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Hiển thị thông báo: "Please fill out this field" tại trường chưa nhập input và ngừng xử lý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Nếu người dùng đã nhập đầy đủ thông tin cho các trường. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Lưu dữ liệu các trường tương ứng vào DB và hiển thị thông báo: "Product Updated"</t>
+  </si>
+  <si>
+    <t>2.4. Xử lý khi Click vào nút Xóa</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lên màn hình gồm 2 nút: "OK" và "Cancel" xác nhận người dùng có muốn xóa sản phẩm hay không?</t>
+  </si>
+  <si>
+    <t>Nếu người dùng click OK</t>
+  </si>
+  <si>
+    <t>Thực hiện xóa product khỏi DB và Reload lại trang</t>
+  </si>
+  <si>
+    <t>Nếu người dùng click Cancel</t>
+  </si>
+  <si>
+    <t>Thoát khỏi thông báo và ngừng xử lý</t>
+  </si>
+  <si>
+    <t>2.5. Xử lý Click cbb Lọc mặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị các lựa chọn lọc mặt hàng theo:</t>
+  </si>
+  <si>
+    <t>Khi người dùng Click vào lựa chọn Xem nhiều nhất</t>
+  </si>
+  <si>
+    <t>Khi người dùng Click vào lựa chọn Giá rẻ nhất</t>
+  </si>
+  <si>
+    <t>Thực hiện sắp xếp và hiển thị các mặt hàng có price lần lượt từ nhỏ nhất đến lớn nhất ra màn hình.</t>
+  </si>
+  <si>
+    <t>Thực hiện sắp xếp và hiển thị các mặt hàng có viewProduct lần lượt từ lớn nhất đến nhỏ nhất ra màn hình.</t>
+  </si>
+  <si>
+    <t>Khi người dùng Click vào lựa chọn Mới nhất</t>
+  </si>
+  <si>
+    <t>Thực hiện sắp xếp và hiển thị các mặt hàng có dateUpdate lần lượt từ ngày gần nhất đến ngày xa nhất ra màn hình.</t>
+  </si>
+  <si>
+    <t>Chuyển giao diện sang trang mới và hiển thị các mặt hàng tương ứng</t>
+  </si>
+  <si>
+    <t>Thực hiện so sánh input với userName. Nếu userName bao gồm input thì tải lại và hiển thị các tài khoản tương ứng ra màn hình.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -581,19 +638,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thin">
@@ -649,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -696,9 +740,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,18 +769,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -824,14 +871,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A379C9-C937-4045-B884-518D9F5F8D7E}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1257,26 +1296,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
@@ -1291,12 +1330,12 @@
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -1651,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE3B27-7E74-43DE-9E7A-82E6F7816E75}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1672,77 +1711,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="39" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K3" s="36"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="60" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="61"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
-      <c r="B5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="28"/>
       <c r="K5" s="27"/>
       <c r="L5" s="26"/>
@@ -1756,15 +1795,15 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="28"/>
       <c r="K6" s="27"/>
       <c r="L6" s="26"/>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="28"/>
@@ -1773,8 +1812,8 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="28"/>
       <c r="K7" s="27"/>
       <c r="L7" s="26"/>
@@ -1782,16 +1821,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
-      <c r="B8" s="33" t="s">
-        <v>14</v>
+      <c r="B8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="28"/>
       <c r="K8" s="27"/>
       <c r="L8" s="26"/>
@@ -1799,16 +1838,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="28"/>
       <c r="K9" s="27"/>
       <c r="L9" s="26"/>
@@ -1817,10 +1856,10 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
@@ -1833,13 +1872,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
-      <c r="B11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -1851,10 +1890,10 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -1867,12 +1906,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
-      <c r="B13" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1884,13 +1923,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -1903,7 +1942,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -1918,10 +1957,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="28" t="s">
         <v>27</v>
       </c>
+      <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1932,383 +1973,707 @@
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="F33" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
